--- a/back-end/secao2-dia3/primeira-forma-normal.xlsx
+++ b/back-end/secao2-dia3/primeira-forma-normal.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Marta, Marizete</t>
   </si>
   <si>
-    <t xml:space="preserve">TABELAS NORMALIZADAS</t>
+    <t xml:space="preserve">TABELAS NORMALIZADAs</t>
   </si>
   <si>
     <t xml:space="preserve">Carolina Rude</t>
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,12 +171,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -294,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,10 +355,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -562,7 +552,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
